--- a/08d.xlsx
+++ b/08d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/【連載】デジタルアドバンテージ/第8回/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3618D-304A-4D46-970A-E1C582D72124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2207F2-B7BC-EE41-8202-D0FC7B9ECF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appleの株価" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -116,12 +116,16 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>出典：Stooq（https://stooq.com/q/d/?s=aapl.us&amp;c=0&amp;d1=20220601&amp;d2=20230831）</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,7 +920,7 @@
             <c:numRef>
               <c:f>Appleの株価グラフ!$A$4:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45078</c:v>
@@ -1339,7 +1343,7 @@
             <c:numRef>
               <c:f>Appleの株価グラフ!$A$4:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>45078</c:v>
@@ -1721,7 +1725,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2794,20 +2798,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.5625" customWidth="1"/>
-    <col min="7" max="7" width="12.0625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2818,8 +2822,11 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>45078</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>68901809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>45079</v>
       </c>
@@ -2885,7 +2892,7 @@
         <v>61996913</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>45082</v>
       </c>
@@ -2905,7 +2912,7 @@
         <v>121946497</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>45083</v>
       </c>
@@ -2925,7 +2932,7 @@
         <v>64848374</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>45084</v>
       </c>
@@ -2949,7 +2956,7 @@
         <v>179.53000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>45085</v>
       </c>
@@ -2973,7 +2980,7 @@
         <v>179.62599999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>45086</v>
       </c>
@@ -2997,7 +3004,7 @@
         <v>179.62800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>45089</v>
       </c>
@@ -3021,7 +3028,7 @@
         <v>180.46999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>45090</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>181.29000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>45091</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>182.51599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>45092</v>
       </c>
@@ -3093,7 +3100,7 @@
         <v>183.60399999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>45093</v>
       </c>
@@ -3117,7 +3124,7 @@
         <v>184.39599999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>45097</v>
       </c>
@@ -3141,7 +3148,7 @@
         <v>184.64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>45098</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>184.77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>45099</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>182.47533333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>45100</v>
       </c>
@@ -3221,7 +3228,7 @@
         <v>182.91466666666665</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>45103</v>
       </c>
@@ -3249,7 +3256,7 @@
         <v>183.20266666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>45104</v>
       </c>
@@ -3277,7 +3284,7 @@
         <v>183.768</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>45105</v>
       </c>
@@ -3305,7 +3312,7 @@
         <v>184.43733333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>45106</v>
       </c>
@@ -3333,7 +3340,7 @@
         <v>185.22200000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>45107</v>
       </c>
@@ -3361,7 +3368,7 @@
         <v>186.11533333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>45110</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>186.88200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>45112</v>
       </c>
@@ -3417,7 +3424,7 @@
         <v>187.38466666666665</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>45113</v>
       </c>
@@ -3445,7 +3452,7 @@
         <v>187.95133333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>45114</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>188.39999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>45117</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>188.5733333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>45118</v>
       </c>
@@ -3529,7 +3536,7 @@
         <v>188.78399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>45119</v>
       </c>
@@ -3557,7 +3564,7 @@
         <v>189.10133333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>45120</v>
       </c>
@@ -3585,7 +3592,7 @@
         <v>189.54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>45121</v>
       </c>
@@ -3613,7 +3620,7 @@
         <v>189.786</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>45124</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>190.27333333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>45125</v>
       </c>
@@ -3669,7 +3676,7 @@
         <v>190.83733333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>45126</v>
       </c>
@@ -3697,7 +3704,7 @@
         <v>191.3066666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>45127</v>
       </c>
@@ -3725,7 +3732,7 @@
         <v>191.56533333333337</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>45128</v>
       </c>
@@ -3753,7 +3760,7 @@
         <v>191.72200000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>45131</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>191.64066666666668</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>45132</v>
       </c>
@@ -3809,7 +3816,7 @@
         <v>191.71799999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>45133</v>
       </c>
@@ -3837,7 +3844,7 @@
         <v>191.92933333333335</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>45134</v>
       </c>
@@ -3865,7 +3872,7 @@
         <v>192.02333333333328</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>45135</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>192.36666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>45138</v>
       </c>
@@ -3921,7 +3928,7 @@
         <v>192.88933333333327</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>45139</v>
       </c>
@@ -3949,7 +3956,7 @@
         <v>193.39099999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>45140</v>
       </c>
@@ -3977,7 +3984,7 @@
         <v>193.57833333333332</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45141</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>193.62033333333332</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>45142</v>
       </c>
@@ -4033,7 +4040,7 @@
         <v>193.04033333333336</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>45145</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>192.03099999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>45146</v>
       </c>
@@ -4089,7 +4096,7 @@
         <v>191.10233333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>45147</v>
       </c>
@@ -4117,7 +4124,7 @@
         <v>189.97499999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>45148</v>
       </c>
@@ -4145,7 +4152,7 @@
         <v>188.96433333333331</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>45149</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>188.02100000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>45152</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>187.13500000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -4229,7 +4236,7 @@
         <v>186.05699999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>45154</v>
       </c>
@@ -4257,7 +4264,7 @@
         <v>184.86166666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>45155</v>
       </c>
@@ -4285,7 +4292,7 @@
         <v>183.58033333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>45156</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>182.15766666666664</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>45159</v>
       </c>
@@ -4341,7 +4348,7 @@
         <v>180.78366666666668</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>45160</v>
       </c>
@@ -4369,7 +4376,7 @@
         <v>179.55866666666671</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>45161</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>178.79466666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>45162</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>177.80866666666668</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>45163</v>
       </c>
@@ -4453,7 +4460,7 @@
         <v>177.58333333333334</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>45166</v>
       </c>
@@ -4481,7 +4488,7 @@
         <v>177.67266666666669</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>45167</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>177.96066666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>45168</v>
       </c>
@@ -4537,7 +4544,7 @@
         <v>178.59133333333335</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>45169</v>
       </c>
@@ -4576,20 +4583,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AC6A9-E4BC-4985-B9D8-EAF2017C0D87}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.5625" customWidth="1"/>
-    <col min="7" max="7" width="12.0625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4600,8 +4607,11 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +4637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>45078</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>68901809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>45079</v>
       </c>
@@ -4667,7 +4677,7 @@
         <v>61996913</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>45082</v>
       </c>
@@ -4687,7 +4697,7 @@
         <v>121946497</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>45083</v>
       </c>
@@ -4707,7 +4717,7 @@
         <v>64848374</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>45084</v>
       </c>
@@ -4731,7 +4741,7 @@
         <v>179.53000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>45085</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>179.62599999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>45086</v>
       </c>
@@ -4779,7 +4789,7 @@
         <v>179.62800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>45089</v>
       </c>
@@ -4803,7 +4813,7 @@
         <v>180.46999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>45090</v>
       </c>
@@ -4827,7 +4837,7 @@
         <v>181.29000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>45091</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>182.51599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>45092</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>183.60399999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>45093</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>184.39599999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>45097</v>
       </c>
@@ -4923,7 +4933,7 @@
         <v>184.64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>45098</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>184.77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>45099</v>
       </c>
@@ -4975,7 +4985,7 @@
         <v>182.47533333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>45100</v>
       </c>
@@ -5003,7 +5013,7 @@
         <v>182.91466666666665</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>45103</v>
       </c>
@@ -5031,7 +5041,7 @@
         <v>183.20266666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>45104</v>
       </c>
@@ -5059,7 +5069,7 @@
         <v>183.768</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>45105</v>
       </c>
@@ -5087,7 +5097,7 @@
         <v>184.43733333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>45106</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>185.22200000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>45107</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>186.11533333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>45110</v>
       </c>
@@ -5171,7 +5181,7 @@
         <v>186.88200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>45112</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>187.38466666666665</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>45113</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>187.95133333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>45114</v>
       </c>
@@ -5255,7 +5265,7 @@
         <v>188.39999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>45117</v>
       </c>
@@ -5283,7 +5293,7 @@
         <v>188.5733333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>45118</v>
       </c>
@@ -5311,7 +5321,7 @@
         <v>188.78399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>45119</v>
       </c>
@@ -5339,7 +5349,7 @@
         <v>189.10133333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>45120</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>189.54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>45121</v>
       </c>
@@ -5395,7 +5405,7 @@
         <v>189.786</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>45124</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>190.27333333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>45125</v>
       </c>
@@ -5451,7 +5461,7 @@
         <v>190.83733333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>45126</v>
       </c>
@@ -5479,7 +5489,7 @@
         <v>191.3066666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>45127</v>
       </c>
@@ -5507,7 +5517,7 @@
         <v>191.56533333333337</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>45128</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>191.72200000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>45131</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>191.64066666666668</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>45132</v>
       </c>
@@ -5591,7 +5601,7 @@
         <v>191.71799999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>45133</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>191.92933333333335</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>45134</v>
       </c>
@@ -5647,7 +5657,7 @@
         <v>192.02333333333328</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>45135</v>
       </c>
@@ -5675,7 +5685,7 @@
         <v>192.36666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>45138</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>192.88933333333327</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>45139</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>193.39099999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>45140</v>
       </c>
@@ -5759,7 +5769,7 @@
         <v>193.57833333333332</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45141</v>
       </c>
@@ -5787,7 +5797,7 @@
         <v>193.62033333333332</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>45142</v>
       </c>
@@ -5815,7 +5825,7 @@
         <v>193.04033333333336</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>45145</v>
       </c>
@@ -5843,7 +5853,7 @@
         <v>192.03099999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>45146</v>
       </c>
@@ -5871,7 +5881,7 @@
         <v>191.10233333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>45147</v>
       </c>
@@ -5899,7 +5909,7 @@
         <v>189.97499999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>45148</v>
       </c>
@@ -5927,7 +5937,7 @@
         <v>188.96433333333331</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>45149</v>
       </c>
@@ -5955,7 +5965,7 @@
         <v>188.02100000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>45152</v>
       </c>
@@ -5983,7 +5993,7 @@
         <v>187.13500000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -6011,7 +6021,7 @@
         <v>186.05699999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>45154</v>
       </c>
@@ -6039,7 +6049,7 @@
         <v>184.86166666666665</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>45155</v>
       </c>
@@ -6067,7 +6077,7 @@
         <v>183.58033333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>45156</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>182.15766666666664</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>45159</v>
       </c>
@@ -6123,7 +6133,7 @@
         <v>180.78366666666668</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>45160</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>179.55866666666671</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>45161</v>
       </c>
@@ -6179,7 +6189,7 @@
         <v>178.79466666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>45162</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>177.80866666666668</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>45163</v>
       </c>
@@ -6235,7 +6245,7 @@
         <v>177.58333333333334</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>45166</v>
       </c>
@@ -6263,7 +6273,7 @@
         <v>177.67266666666669</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>45167</v>
       </c>
@@ -6291,7 +6301,7 @@
         <v>177.96066666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>45168</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>178.59133333333335</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>45169</v>
       </c>
